--- a/OPM经济数值/活动_4_时光之巅.xlsx
+++ b/OPM经济数值/活动_4_时光之巅.xlsx
@@ -39,110 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="46">
-  <si>
-    <t>奖励类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>锚点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励1类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>奖励2类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价值2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机5星饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机4星饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机3星饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>现金</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等攻击天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中等生存天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等攻击天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>高等生存天赋书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机2星饰品</t>
-  </si>
-  <si>
-    <t>随机2星饰品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大宝箱4个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小箱子10个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回血药2个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地图商店1个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
   <si>
     <t>难度</t>
     <rPh sb="0" eb="1">
@@ -4850,10 +4747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:W45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4871,57 +4768,44 @@
     <col min="23" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="P1" s="4"/>
-      <c r="Q1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="V1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.15">
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -4935,34 +4819,24 @@
         <v>pack,303,1</v>
       </c>
       <c r="P2" s="4"/>
-      <c r="Q2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="4">
-        <v>2</v>
-      </c>
-      <c r="S2" s="4">
-        <f>VLOOKUP(Q2,价值!$B:$G,6,0)*R2</f>
-        <v>100</v>
-      </c>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
-      <c r="AA2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C3" s="6">
         <v>2</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E3" s="2">
         <v>1</v>
@@ -4976,34 +4850,24 @@
         <v>pack,303,1</v>
       </c>
       <c r="P3" s="4"/>
-      <c r="Q3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R3" s="4">
-        <v>1</v>
-      </c>
-      <c r="S3" s="4">
-        <f>VLOOKUP(Q3,价值!$B:$G,6,0)*R3</f>
-        <v>90</v>
-      </c>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
-      <c r="AA3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
         <v>1</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C4" s="6">
         <v>3</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
         <v>1</v>
@@ -5017,34 +4881,24 @@
         <v>pack,303,1</v>
       </c>
       <c r="P4" s="4"/>
-      <c r="Q4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R4" s="4">
-        <v>2</v>
-      </c>
-      <c r="S4" s="4">
-        <f>VLOOKUP(Q4,价值!$B:$G,6,0)*R4</f>
-        <v>100</v>
-      </c>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
-      <c r="AA4" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C5" s="6">
         <v>4</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E5" s="2">
         <v>1</v>
@@ -5058,34 +4912,24 @@
         <v>pack,303,1</v>
       </c>
       <c r="P5" s="4"/>
-      <c r="Q5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" s="4">
-        <v>1</v>
-      </c>
-      <c r="S5" s="4">
-        <f>VLOOKUP(Q5,价值!$B:$G,6,0)*R5</f>
-        <v>90</v>
-      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="AA5" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
         <v>1</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C6" s="6">
         <v>5</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E6" s="2">
         <v>1</v>
@@ -5099,31 +4943,24 @@
         <v>pack,303,1</v>
       </c>
       <c r="P6" s="4"/>
-      <c r="Q6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="R6" s="4">
-        <v>2</v>
-      </c>
-      <c r="S6" s="4">
-        <f>VLOOKUP(Q6,价值!$B:$G,6,0)*R6</f>
-        <v>100</v>
-      </c>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
         <v>1</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C7" s="6">
         <v>6</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E7" s="2">
         <v>1</v>
@@ -5137,31 +4974,24 @@
         <v>prop,105,1</v>
       </c>
       <c r="P7" s="4"/>
-      <c r="Q7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R7" s="4">
-        <v>1</v>
-      </c>
-      <c r="S7" s="4">
-        <f>VLOOKUP(Q7,价值!$B:$G,6,0)*R7</f>
-        <v>90</v>
-      </c>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C8" s="6">
         <v>7</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E8" s="2">
         <v>500</v>
@@ -5175,31 +5005,24 @@
         <v>stage_token,500</v>
       </c>
       <c r="P8" s="4"/>
-      <c r="Q8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R8" s="4">
-        <v>1</v>
-      </c>
-      <c r="S8" s="4">
-        <f>VLOOKUP(Q8,价值!$B:$G,6,0)*R8</f>
-        <v>600</v>
-      </c>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
         <v>1</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C9" s="6">
         <v>8</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E9" s="2">
         <v>2500</v>
@@ -5213,31 +5036,24 @@
         <v>coin,2500</v>
       </c>
       <c r="P9" s="4"/>
-      <c r="Q9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="4">
-        <v>1</v>
-      </c>
-      <c r="S9" s="4">
-        <f>VLOOKUP(Q9,价值!$B:$G,6,0)*R9</f>
-        <v>90</v>
-      </c>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
         <v>1</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6">
         <v>9</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E10" s="2">
         <v>2500</v>
@@ -5251,31 +5067,24 @@
         <v>coin,2500</v>
       </c>
       <c r="P10" s="4"/>
-      <c r="Q10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R10" s="4">
-        <v>1</v>
-      </c>
-      <c r="S10" s="4">
-        <f>VLOOKUP(Q10,价值!$B:$G,6,0)*R10</f>
-        <v>600</v>
-      </c>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
       <c r="T10" s="4"/>
       <c r="U10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
         <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C11" s="6">
         <v>10</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2">
         <v>1</v>
@@ -5289,31 +5098,24 @@
         <v>pack,702,1</v>
       </c>
       <c r="P11" s="4"/>
-      <c r="Q11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="4">
-        <v>1</v>
-      </c>
-      <c r="S11" s="4">
-        <f>VLOOKUP(Q11,价值!$B:$G,6,0)*R11</f>
-        <v>360</v>
-      </c>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
         <v>1</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C12" s="6">
         <v>1</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E12" s="2">
         <v>1</v>
@@ -5327,31 +5129,24 @@
         <v>pack,304,1</v>
       </c>
       <c r="P12" s="4"/>
-      <c r="Q12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="R12" s="4">
-        <v>1</v>
-      </c>
-      <c r="S12" s="4">
-        <f>VLOOKUP(Q12,价值!$B:$G,6,0)*R12</f>
-        <v>600</v>
-      </c>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
       <c r="T12" s="4"/>
       <c r="U12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
         <v>1</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C13" s="6">
         <v>2</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="E13" s="2">
         <v>2</v>
@@ -5365,31 +5160,24 @@
         <v>prop,702,2</v>
       </c>
       <c r="P13" s="4"/>
-      <c r="Q13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="R13" s="4">
-        <v>1</v>
-      </c>
-      <c r="S13" s="4">
-        <f>VLOOKUP(Q13,价值!$B:$G,6,0)*R13</f>
-        <v>360</v>
-      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
         <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C14" s="6">
         <v>3</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E14" s="2">
         <v>1</v>
@@ -5403,31 +5191,24 @@
         <v>0,1</v>
       </c>
       <c r="P14" s="4"/>
-      <c r="Q14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R14" s="4">
-        <v>1</v>
-      </c>
-      <c r="S14" s="4">
-        <f>VLOOKUP(Q14,价值!$B:$G,6,0)*R14</f>
-        <v>4800</v>
-      </c>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
         <v>1</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C15" s="6">
         <v>4</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="E15" s="2">
         <v>400</v>
@@ -5441,35 +5222,24 @@
         <v>cash,400</v>
       </c>
       <c r="P15" s="4"/>
-      <c r="Q15" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R15" s="4">
-        <v>1</v>
-      </c>
-      <c r="S15" s="4">
-        <f>VLOOKUP(Q15,价值!$B:$G,6,0)*R15</f>
-        <v>4800</v>
-      </c>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
-      <c r="V15" s="4" t="e">
-        <f>#REF!</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.15">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
         <v>2</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C16" s="6">
         <v>1</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
@@ -5483,35 +5253,25 @@
         <v>pack,303,1</v>
       </c>
       <c r="P16" s="4"/>
-      <c r="Q16" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="R16" s="4">
-        <v>1</v>
-      </c>
-      <c r="S16" s="4">
-        <f>VLOOKUP(Q16,价值!$B:$G,6,0)*R16</f>
-        <v>4800</v>
-      </c>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
       <c r="T16" s="4"/>
       <c r="U16" s="4"/>
-      <c r="V16" s="5" t="str">
-        <f>D3</f>
-        <v>随机3星饰品</v>
-      </c>
+      <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
         <v>2</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C17" s="6">
         <v>2</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
@@ -5526,10 +5286,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="4">
-        <f>SUM(S2:S16)</f>
-        <v>17580</v>
-      </c>
+      <c r="S17" s="4"/>
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
@@ -5538,13 +5295,13 @@
         <v>2</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C18" s="6">
         <v>3</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
@@ -5568,13 +5325,13 @@
         <v>2</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C19" s="6">
         <v>4</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
@@ -5588,40 +5345,25 @@
         <v>prop,105,1</v>
       </c>
       <c r="P19" s="4"/>
-      <c r="Q19" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="R19" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="S19" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="T19" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="U19" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="W19" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="W19" s="4"/>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
         <v>2</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C20" s="6">
         <v>5</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
@@ -5635,43 +5377,25 @@
         <v>pack,303,1</v>
       </c>
       <c r="P20" s="4"/>
-      <c r="Q20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R20" s="4">
-        <v>1</v>
-      </c>
-      <c r="S20" s="4">
-        <f>VLOOKUP(Q20,价值!$B:$G,6,0)*R20</f>
-        <v>15</v>
-      </c>
-      <c r="T20" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U20" s="4">
-        <v>750</v>
-      </c>
-      <c r="V20" s="4">
-        <f>VLOOKUP(T20,价值!$B:$G,6,0)*U20</f>
-        <v>15</v>
-      </c>
-      <c r="W20" s="5" t="str">
-        <f>D8</f>
-        <v>副本代币</v>
-      </c>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="W20" s="5"/>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
         <v>2</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C21" s="6">
         <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
@@ -5685,26 +5409,11 @@
         <v>pack,303,1</v>
       </c>
       <c r="P21" s="4"/>
-      <c r="Q21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R21" s="4">
-        <v>1</v>
-      </c>
-      <c r="S21" s="4">
-        <f>VLOOKUP(Q21,价值!$B:$G,6,0)*R21</f>
-        <v>15</v>
-      </c>
-      <c r="T21" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U21" s="4">
-        <v>800</v>
-      </c>
-      <c r="V21" s="4">
-        <f>VLOOKUP(T21,价值!$B:$G,6,0)*U21</f>
-        <v>16</v>
-      </c>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
       <c r="W21" s="5"/>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.15">
@@ -5712,13 +5421,13 @@
         <v>2</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C22" s="6">
         <v>7</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E22" s="2">
         <v>2500</v>
@@ -5732,26 +5441,11 @@
         <v>coin,2500</v>
       </c>
       <c r="P22" s="4"/>
-      <c r="Q22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R22" s="4">
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
-        <f>VLOOKUP(Q22,价值!$B:$G,6,0)*R22</f>
-        <v>15</v>
-      </c>
-      <c r="T22" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U22" s="4">
-        <v>850</v>
-      </c>
-      <c r="V22" s="4">
-        <f>VLOOKUP(T22,价值!$B:$G,6,0)*U22</f>
-        <v>17</v>
-      </c>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
       <c r="W22" s="5"/>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.15">
@@ -5759,13 +5453,13 @@
         <v>2</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C23" s="6">
         <v>8</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E23" s="2">
         <v>2500</v>
@@ -5779,26 +5473,11 @@
         <v>coin,2500</v>
       </c>
       <c r="P23" s="4"/>
-      <c r="Q23" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R23" s="4">
-        <v>1</v>
-      </c>
-      <c r="S23" s="4">
-        <f>VLOOKUP(Q23,价值!$B:$G,6,0)*R23</f>
-        <v>15</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U23" s="4">
-        <v>900</v>
-      </c>
-      <c r="V23" s="4">
-        <f>VLOOKUP(T23,价值!$B:$G,6,0)*U23</f>
-        <v>18</v>
-      </c>
+      <c r="Q23" s="4"/>
+      <c r="R23" s="4"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
       <c r="W23" s="5"/>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.15">
@@ -5806,13 +5485,13 @@
         <v>2</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C24" s="6">
         <v>9</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E24" s="2">
         <v>1</v>
@@ -5826,26 +5505,11 @@
         <v>pack,702,1</v>
       </c>
       <c r="P24" s="4"/>
-      <c r="Q24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="R24" s="4">
-        <v>1</v>
-      </c>
-      <c r="S24" s="4">
-        <f>VLOOKUP(Q24,价值!$B:$G,6,0)*R24</f>
-        <v>15</v>
-      </c>
-      <c r="T24" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U24" s="4">
-        <v>950</v>
-      </c>
-      <c r="V24" s="4">
-        <f>VLOOKUP(T24,价值!$B:$G,6,0)*U24</f>
-        <v>19</v>
-      </c>
+      <c r="Q24" s="4"/>
+      <c r="R24" s="4"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
       <c r="W24" s="5"/>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.15">
@@ -5853,13 +5517,13 @@
         <v>2</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C25" s="6">
         <v>10</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E25" s="2">
         <v>1</v>
@@ -5873,26 +5537,11 @@
         <v>pack,702,1</v>
       </c>
       <c r="P25" s="4"/>
-      <c r="Q25" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R25" s="4">
-        <v>1</v>
-      </c>
-      <c r="S25" s="4">
-        <f>VLOOKUP(Q25,价值!$B:$G,6,0)*R25</f>
-        <v>15</v>
-      </c>
-      <c r="T25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U25" s="4">
-        <v>1000</v>
-      </c>
-      <c r="V25" s="4">
-        <f>VLOOKUP(T25,价值!$B:$G,6,0)*U25</f>
-        <v>20</v>
-      </c>
+      <c r="Q25" s="4"/>
+      <c r="R25" s="4"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
       <c r="W25" s="5"/>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.15">
@@ -5900,13 +5549,13 @@
         <v>2</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C26" s="6">
         <v>1</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E26" s="2">
         <v>1</v>
@@ -5920,26 +5569,11 @@
         <v>pack,304,1</v>
       </c>
       <c r="P26" s="4"/>
-      <c r="Q26" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R26" s="4">
-        <v>1</v>
-      </c>
-      <c r="S26" s="4">
-        <f>VLOOKUP(Q26,价值!$B:$G,6,0)*R26</f>
-        <v>15</v>
-      </c>
-      <c r="T26" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U26" s="4">
-        <v>1100</v>
-      </c>
-      <c r="V26" s="4">
-        <f>VLOOKUP(T26,价值!$B:$G,6,0)*U26</f>
-        <v>22</v>
-      </c>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
       <c r="W26" s="5"/>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.15">
@@ -5947,13 +5581,13 @@
         <v>2</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C27" s="6">
         <v>2</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E27" s="2">
         <v>1</v>
@@ -5967,26 +5601,11 @@
         <v>pack,304,1</v>
       </c>
       <c r="P27" s="4"/>
-      <c r="Q27" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="4">
-        <v>1</v>
-      </c>
-      <c r="S27" s="4">
-        <f>VLOOKUP(Q27,价值!$B:$G,6,0)*R27</f>
-        <v>15</v>
-      </c>
-      <c r="T27" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U27" s="4">
-        <v>1200</v>
-      </c>
-      <c r="V27" s="4">
-        <f>VLOOKUP(T27,价值!$B:$G,6,0)*U27</f>
-        <v>24</v>
-      </c>
+      <c r="Q27" s="4"/>
+      <c r="R27" s="4"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
       <c r="W27" s="5"/>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.15">
@@ -5994,13 +5613,13 @@
         <v>2</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C28" s="6">
         <v>3</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>5</v>
@@ -6014,26 +5633,11 @@
         <v>prop,403,5</v>
       </c>
       <c r="P28" s="4"/>
-      <c r="Q28" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R28" s="4">
-        <v>1</v>
-      </c>
-      <c r="S28" s="4">
-        <f>VLOOKUP(Q28,价值!$B:$G,6,0)*R28</f>
-        <v>15</v>
-      </c>
-      <c r="T28" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U28" s="4">
-        <v>1300</v>
-      </c>
-      <c r="V28" s="4">
-        <f>VLOOKUP(T28,价值!$B:$G,6,0)*U28</f>
-        <v>26</v>
-      </c>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
       <c r="W28" s="5"/>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.15">
@@ -6041,13 +5645,13 @@
         <v>2</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C29" s="6">
         <v>4</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E29" s="2">
         <v>4000</v>
@@ -6061,26 +5665,11 @@
         <v>stage_token,4000</v>
       </c>
       <c r="P29" s="4"/>
-      <c r="Q29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R29" s="4">
-        <v>1</v>
-      </c>
-      <c r="S29" s="4">
-        <f>VLOOKUP(Q29,价值!$B:$G,6,0)*R29</f>
-        <v>15</v>
-      </c>
-      <c r="T29" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U29" s="4">
-        <v>1400</v>
-      </c>
-      <c r="V29" s="4">
-        <f>VLOOKUP(T29,价值!$B:$G,6,0)*U29</f>
-        <v>28</v>
-      </c>
+      <c r="Q29" s="4"/>
+      <c r="R29" s="4"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
       <c r="W29" s="5"/>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.15">
@@ -6088,13 +5677,13 @@
         <v>3</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C30" s="6">
         <v>1</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E30" s="2">
         <v>1</v>
@@ -6108,26 +5697,11 @@
         <v>pack,303,1</v>
       </c>
       <c r="P30" s="4"/>
-      <c r="Q30" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="4">
-        <v>1</v>
-      </c>
-      <c r="S30" s="4">
-        <f>VLOOKUP(Q30,价值!$B:$G,6,0)*R30</f>
-        <v>15</v>
-      </c>
-      <c r="T30" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U30" s="4">
-        <v>1500</v>
-      </c>
-      <c r="V30" s="4">
-        <f>VLOOKUP(T30,价值!$B:$G,6,0)*U30</f>
-        <v>30</v>
-      </c>
+      <c r="Q30" s="4"/>
+      <c r="R30" s="4"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
       <c r="W30" s="5"/>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.15">
@@ -6135,13 +5709,13 @@
         <v>3</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C31" s="6">
         <v>2</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E31" s="2">
         <v>1</v>
@@ -6155,26 +5729,11 @@
         <v>pack,303,1</v>
       </c>
       <c r="P31" s="4"/>
-      <c r="Q31" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R31" s="4">
-        <v>1</v>
-      </c>
-      <c r="S31" s="4">
-        <f>VLOOKUP(Q31,价值!$B:$G,6,0)*R31</f>
-        <v>15</v>
-      </c>
-      <c r="T31" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U31" s="4">
-        <v>1600</v>
-      </c>
-      <c r="V31" s="4">
-        <f>VLOOKUP(T31,价值!$B:$G,6,0)*U31</f>
-        <v>32</v>
-      </c>
+      <c r="Q31" s="4"/>
+      <c r="R31" s="4"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
       <c r="W31" s="5"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.15">
@@ -6182,13 +5741,13 @@
         <v>3</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C32" s="6">
         <v>3</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E32" s="2">
         <v>1</v>
@@ -6202,43 +5761,25 @@
         <v>pack,303,1</v>
       </c>
       <c r="P32" s="4"/>
-      <c r="Q32" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="R32" s="4">
-        <v>1</v>
-      </c>
-      <c r="S32" s="4">
-        <f>VLOOKUP(Q32,价值!$B:$G,6,0)*R32</f>
-        <v>15</v>
-      </c>
-      <c r="T32" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="U32" s="4">
-        <v>1750</v>
-      </c>
-      <c r="V32" s="4">
-        <f>VLOOKUP(T32,价值!$B:$G,6,0)*U32</f>
-        <v>35</v>
-      </c>
-      <c r="W32" s="5" t="str">
-        <f>B8</f>
-        <v>小</v>
-      </c>
+      <c r="Q32" s="4"/>
+      <c r="R32" s="4"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="W32" s="5"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
         <v>3</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C33" s="6">
         <v>4</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="E33" s="2">
         <v>1</v>
@@ -6257,13 +5798,13 @@
         <v>3</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C34" s="6">
         <v>5</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E34" s="2">
         <v>1</v>
@@ -6282,13 +5823,13 @@
         <v>3</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C35" s="6">
         <v>6</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="E35" s="2">
         <v>1</v>
@@ -6307,13 +5848,13 @@
         <v>3</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C36" s="6">
         <v>7</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E36" s="2">
         <v>500</v>
@@ -6332,13 +5873,13 @@
         <v>3</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C37" s="6">
         <v>8</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="E37" s="2">
         <v>500</v>
@@ -6357,13 +5898,13 @@
         <v>3</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C38" s="6">
         <v>9</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E38" s="2">
         <v>2500</v>
@@ -6382,13 +5923,13 @@
         <v>3</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="C39" s="6">
         <v>10</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="E39" s="2">
         <v>2500</v>
@@ -6407,13 +5948,13 @@
         <v>3</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C40" s="6">
         <v>1</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E40" s="2">
         <v>1</v>
@@ -6432,13 +5973,13 @@
         <v>3</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C41" s="6">
         <v>2</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="E41" s="2">
         <v>1</v>
@@ -6457,13 +5998,13 @@
         <v>3</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C42" s="6">
         <v>3</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="E42" s="2">
         <v>1</v>
@@ -6482,13 +6023,13 @@
         <v>3</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C43" s="6">
         <v>4</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="E43" s="2">
         <v>2</v>

--- a/OPM经济数值/活动_4_时光之巅.xlsx
+++ b/OPM经济数值/活动_4_时光之巅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080"/>
+    <workbookView xWindow="-38020" yWindow="1520" windowWidth="38400" windowHeight="20080"/>
   </bookViews>
   <sheets>
     <sheet name="奖励" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
   <si>
     <t>难度</t>
     <rPh sb="0" eb="1">
@@ -206,12 +206,20 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>pack,91</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pack,92</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +273,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -286,7 +302,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,18 +321,23 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -458,6 +479,9 @@
           <cell r="B9" t="str">
             <v>钻石</v>
           </cell>
+          <cell r="C9">
+            <v>0</v>
+          </cell>
           <cell r="D9" t="str">
             <v>cash</v>
           </cell>
@@ -472,6 +496,9 @@
           <cell r="B10" t="str">
             <v>色子</v>
           </cell>
+          <cell r="C10">
+            <v>0</v>
+          </cell>
           <cell r="D10" t="str">
             <v>dice</v>
           </cell>
@@ -840,6 +867,9 @@
           <cell r="D39" t="str">
             <v>prop,201</v>
           </cell>
+          <cell r="E39">
+            <v>0</v>
+          </cell>
         </row>
         <row r="40">
           <cell r="A40">
@@ -2554,6 +2584,9 @@
           <cell r="D134" t="str">
             <v>prop,610</v>
           </cell>
+          <cell r="E134">
+            <v>0</v>
+          </cell>
         </row>
         <row r="135">
           <cell r="A135">
@@ -2568,37 +2601,76 @@
           <cell r="D135" t="str">
             <v>prop,611</v>
           </cell>
+          <cell r="E135">
+            <v>0</v>
+          </cell>
         </row>
         <row r="136">
           <cell r="A136">
             <v>612</v>
           </cell>
+          <cell r="B136">
+            <v>0</v>
+          </cell>
+          <cell r="C136">
+            <v>0</v>
+          </cell>
           <cell r="D136" t="str">
             <v>prop,612</v>
+          </cell>
+          <cell r="E136">
+            <v>0</v>
           </cell>
         </row>
         <row r="137">
           <cell r="A137">
             <v>613</v>
           </cell>
+          <cell r="B137">
+            <v>0</v>
+          </cell>
+          <cell r="C137">
+            <v>0</v>
+          </cell>
           <cell r="D137" t="str">
             <v>prop,613</v>
+          </cell>
+          <cell r="E137">
+            <v>0</v>
           </cell>
         </row>
         <row r="138">
           <cell r="A138">
             <v>614</v>
           </cell>
+          <cell r="B138">
+            <v>0</v>
+          </cell>
+          <cell r="C138">
+            <v>0</v>
+          </cell>
           <cell r="D138" t="str">
             <v>prop,614</v>
+          </cell>
+          <cell r="E138">
+            <v>0</v>
           </cell>
         </row>
         <row r="139">
           <cell r="A139">
             <v>615</v>
           </cell>
+          <cell r="B139">
+            <v>0</v>
+          </cell>
+          <cell r="C139">
+            <v>0</v>
+          </cell>
           <cell r="D139" t="str">
             <v>prop,615</v>
+          </cell>
+          <cell r="E139">
+            <v>0</v>
           </cell>
         </row>
         <row r="140">
@@ -2608,8 +2680,14 @@
           <cell r="B140" t="str">
             <v>公会礼包</v>
           </cell>
+          <cell r="C140">
+            <v>0</v>
+          </cell>
           <cell r="D140" t="str">
             <v>prop,616</v>
+          </cell>
+          <cell r="E140">
+            <v>0</v>
           </cell>
         </row>
         <row r="141">
@@ -2625,6 +2703,9 @@
           <cell r="D141" t="str">
             <v>prop,617</v>
           </cell>
+          <cell r="E141">
+            <v>0</v>
+          </cell>
         </row>
         <row r="142">
           <cell r="A142">
@@ -2639,6 +2720,9 @@
           <cell r="D142" t="str">
             <v>prop,618</v>
           </cell>
+          <cell r="E142">
+            <v>0</v>
+          </cell>
         </row>
         <row r="143">
           <cell r="A143">
@@ -2653,6 +2737,9 @@
           <cell r="D143" t="str">
             <v>prop,619</v>
           </cell>
+          <cell r="E143">
+            <v>0</v>
+          </cell>
         </row>
         <row r="144">
           <cell r="A144">
@@ -2667,6 +2754,9 @@
           <cell r="D144" t="str">
             <v>prop,620</v>
           </cell>
+          <cell r="E144">
+            <v>0</v>
+          </cell>
         </row>
         <row r="145">
           <cell r="A145">
@@ -2681,6 +2771,9 @@
           <cell r="D145" t="str">
             <v>prop,621</v>
           </cell>
+          <cell r="E145">
+            <v>0</v>
+          </cell>
         </row>
         <row r="146">
           <cell r="A146">
@@ -2695,6 +2788,9 @@
           <cell r="D146" t="str">
             <v>prop,622</v>
           </cell>
+          <cell r="E146">
+            <v>0</v>
+          </cell>
         </row>
         <row r="147">
           <cell r="A147">
@@ -2709,6 +2805,9 @@
           <cell r="D147" t="str">
             <v>prop,623</v>
           </cell>
+          <cell r="E147">
+            <v>0</v>
+          </cell>
         </row>
         <row r="148">
           <cell r="A148">
@@ -2723,6 +2822,9 @@
           <cell r="D148" t="str">
             <v>prop,624</v>
           </cell>
+          <cell r="E148">
+            <v>0</v>
+          </cell>
         </row>
         <row r="149">
           <cell r="A149">
@@ -2737,6 +2839,9 @@
           <cell r="D149" t="str">
             <v>prop,601</v>
           </cell>
+          <cell r="E149">
+            <v>0</v>
+          </cell>
         </row>
         <row r="150">
           <cell r="A150">
@@ -2751,6 +2856,9 @@
           <cell r="D150" t="str">
             <v>prop,602</v>
           </cell>
+          <cell r="E150">
+            <v>0</v>
+          </cell>
         </row>
         <row r="151">
           <cell r="A151">
@@ -2765,6 +2873,9 @@
           <cell r="D151" t="str">
             <v>prop,603</v>
           </cell>
+          <cell r="E151">
+            <v>0</v>
+          </cell>
         </row>
         <row r="152">
           <cell r="A152">
@@ -2779,6 +2890,9 @@
           <cell r="D152" t="str">
             <v>prop,604</v>
           </cell>
+          <cell r="E152">
+            <v>0</v>
+          </cell>
         </row>
         <row r="153">
           <cell r="A153">
@@ -2793,6 +2907,9 @@
           <cell r="D153" t="str">
             <v>prop,605</v>
           </cell>
+          <cell r="E153">
+            <v>0</v>
+          </cell>
         </row>
         <row r="154">
           <cell r="A154">
@@ -2807,6 +2924,9 @@
           <cell r="D154" t="str">
             <v>prop,606</v>
           </cell>
+          <cell r="E154">
+            <v>0</v>
+          </cell>
         </row>
         <row r="155">
           <cell r="A155">
@@ -2821,6 +2941,9 @@
           <cell r="D155" t="str">
             <v>prop,607</v>
           </cell>
+          <cell r="E155">
+            <v>0</v>
+          </cell>
         </row>
         <row r="156">
           <cell r="A156">
@@ -2835,6 +2958,9 @@
           <cell r="D156" t="str">
             <v>prop,608</v>
           </cell>
+          <cell r="E156">
+            <v>0</v>
+          </cell>
         </row>
         <row r="157">
           <cell r="A157">
@@ -3108,6 +3234,9 @@
           <cell r="B171" t="str">
             <v>迷宫复活道具</v>
           </cell>
+          <cell r="C171">
+            <v>0</v>
+          </cell>
           <cell r="D171" t="str">
             <v>prop,809</v>
           </cell>
@@ -3390,9 +3519,38 @@
             <v>200</v>
           </cell>
         </row>
+        <row r="188">
+          <cell r="A188">
+            <v>0</v>
+          </cell>
+          <cell r="B188">
+            <v>0</v>
+          </cell>
+          <cell r="C188">
+            <v>0</v>
+          </cell>
+          <cell r="D188">
+            <v>0</v>
+          </cell>
+          <cell r="E188">
+            <v>0</v>
+          </cell>
+        </row>
         <row r="189">
           <cell r="A189" t="str">
             <v>英雄</v>
+          </cell>
+          <cell r="B189">
+            <v>0</v>
+          </cell>
+          <cell r="C189">
+            <v>0</v>
+          </cell>
+          <cell r="D189">
+            <v>0</v>
+          </cell>
+          <cell r="E189">
+            <v>0</v>
           </cell>
         </row>
         <row r="190">
@@ -4749,8 +4907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P37" sqref="P37"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4798,26 +4956,27 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>1</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="10">
         <v>1</v>
       </c>
       <c r="F2" s="4">
         <f>VLOOKUP(D2,价值!$B:$G,6,0)*E2</f>
         <v>50</v>
       </c>
-      <c r="G2" s="9" t="str">
+      <c r="G2" s="8" t="str">
         <f>VLOOKUP(D2,价值!$B:$G,3,0)&amp;","&amp;E2</f>
         <v>pack,303,1</v>
       </c>
+      <c r="H2" s="3"/>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -4829,26 +4988,27 @@
       <c r="A3" s="4">
         <v>1</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="10">
         <v>1</v>
       </c>
       <c r="F3" s="4">
         <f>VLOOKUP(D3,价值!$B:$G,6,0)*E3</f>
         <v>50</v>
       </c>
-      <c r="G3" s="9" t="str">
+      <c r="G3" s="8" t="str">
         <f>VLOOKUP(D3,价值!$B:$G,3,0)&amp;","&amp;E3</f>
         <v>pack,303,1</v>
       </c>
+      <c r="H3" s="3"/>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -4860,26 +5020,27 @@
       <c r="A4" s="4">
         <v>1</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="10">
         <v>1</v>
       </c>
       <c r="F4" s="4">
         <f>VLOOKUP(D4,价值!$B:$G,6,0)*E4</f>
         <v>50</v>
       </c>
-      <c r="G4" s="9" t="str">
+      <c r="G4" s="8" t="str">
         <f>VLOOKUP(D4,价值!$B:$G,3,0)&amp;","&amp;E4</f>
         <v>pack,303,1</v>
       </c>
+      <c r="H4" s="3"/>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -4891,26 +5052,27 @@
       <c r="A5" s="4">
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>4</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="10">
         <v>1</v>
       </c>
       <c r="F5" s="4">
         <f>VLOOKUP(D5,价值!$B:$G,6,0)*E5</f>
         <v>50</v>
       </c>
-      <c r="G5" s="9" t="str">
+      <c r="G5" s="8" t="str">
         <f>VLOOKUP(D5,价值!$B:$G,3,0)&amp;","&amp;E5</f>
         <v>pack,303,1</v>
       </c>
+      <c r="H5" s="3"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -4922,26 +5084,27 @@
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>5</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="10">
         <v>1</v>
       </c>
       <c r="F6" s="4">
         <f>VLOOKUP(D6,价值!$B:$G,6,0)*E6</f>
         <v>50</v>
       </c>
-      <c r="G6" s="9" t="str">
+      <c r="G6" s="8" t="str">
         <f>VLOOKUP(D6,价值!$B:$G,3,0)&amp;","&amp;E6</f>
         <v>pack,303,1</v>
       </c>
+      <c r="H6" s="3"/>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -4953,26 +5116,27 @@
       <c r="A7" s="4">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="10">
         <v>1</v>
       </c>
       <c r="F7" s="4">
         <f>VLOOKUP(D7,价值!$B:$G,6,0)*E7</f>
         <v>60</v>
       </c>
-      <c r="G7" s="9" t="str">
+      <c r="G7" s="8" t="str">
         <f>VLOOKUP(D7,价值!$B:$G,3,0)&amp;","&amp;E7</f>
         <v>prop,105,1</v>
       </c>
+      <c r="H7" s="8"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -4984,23 +5148,23 @@
       <c r="A8" s="4">
         <v>1</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>7</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="10">
         <v>500</v>
       </c>
       <c r="F8" s="4">
         <f>VLOOKUP(D8,价值!$B:$G,6,0)*E8</f>
         <v>62.5</v>
       </c>
-      <c r="G8" s="9" t="str">
+      <c r="G8" s="8" t="str">
         <f>VLOOKUP(D8,价值!$B:$G,3,0)&amp;","&amp;E8</f>
         <v>stage_token,500</v>
       </c>
@@ -5015,23 +5179,23 @@
       <c r="A9" s="4">
         <v>1</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>8</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="10">
         <v>2500</v>
       </c>
       <c r="F9" s="4">
         <f>VLOOKUP(D9,价值!$B:$G,6,0)*E9</f>
         <v>50</v>
       </c>
-      <c r="G9" s="9" t="str">
+      <c r="G9" s="8" t="str">
         <f>VLOOKUP(D9,价值!$B:$G,3,0)&amp;","&amp;E9</f>
         <v>coin,2500</v>
       </c>
@@ -5046,23 +5210,23 @@
       <c r="A10" s="4">
         <v>1</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>9</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="10">
         <v>2500</v>
       </c>
       <c r="F10" s="4">
         <f>VLOOKUP(D10,价值!$B:$G,6,0)*E10</f>
         <v>50</v>
       </c>
-      <c r="G10" s="9" t="str">
+      <c r="G10" s="8" t="str">
         <f>VLOOKUP(D10,价值!$B:$G,3,0)&amp;","&amp;E10</f>
         <v>coin,2500</v>
       </c>
@@ -5077,23 +5241,23 @@
       <c r="A11" s="4">
         <v>1</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="F11" s="4">
         <f>VLOOKUP(D11,价值!$B:$G,6,0)*E11</f>
         <v>40</v>
       </c>
-      <c r="G11" s="9" t="str">
+      <c r="G11" s="8" t="str">
         <f>VLOOKUP(D11,价值!$B:$G,3,0)&amp;","&amp;E11</f>
         <v>pack,702,1</v>
       </c>
@@ -5108,23 +5272,23 @@
       <c r="A12" s="4">
         <v>1</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="12">
         <v>1</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="14">
         <v>1</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f>VLOOKUP(D12,价值!$B:$G,6,0)*E12</f>
         <v>600</v>
       </c>
-      <c r="G12" s="9" t="str">
+      <c r="G12" s="8" t="str">
         <f>VLOOKUP(D12,价值!$B:$G,3,0)&amp;","&amp;E12</f>
         <v>pack,304,1</v>
       </c>
@@ -5139,23 +5303,23 @@
       <c r="A13" s="4">
         <v>1</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="12">
         <v>2</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="14">
         <v>2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="9">
         <f>VLOOKUP(D13,价值!$B:$G,6,0)*E13</f>
         <v>500</v>
       </c>
-      <c r="G13" s="9" t="str">
+      <c r="G13" s="8" t="str">
         <f>VLOOKUP(D13,价值!$B:$G,3,0)&amp;","&amp;E13</f>
         <v>prop,702,2</v>
       </c>
@@ -5170,25 +5334,24 @@
       <c r="A14" s="4">
         <v>1</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="12">
         <v>3</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="14">
         <v>1</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="9">
         <f>VLOOKUP(D14,价值!$B:$G,6,0)*E14</f>
         <v>300</v>
       </c>
-      <c r="G14" s="7" t="str">
-        <f>VLOOKUP(D14,价值!$B:$G,3,0)&amp;","&amp;E14</f>
-        <v>0,1</v>
+      <c r="G14" s="7" t="s">
+        <v>20</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -5201,23 +5364,23 @@
       <c r="A15" s="4">
         <v>1</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="12">
         <v>4</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="14">
         <v>400</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F15" s="9">
         <f>VLOOKUP(D15,价值!$B:$G,6,0)*E15</f>
         <v>400</v>
       </c>
-      <c r="G15" s="9" t="str">
+      <c r="G15" s="8" t="str">
         <f>VLOOKUP(D15,价值!$B:$G,3,0)&amp;","&amp;E15</f>
         <v>cash,400</v>
       </c>
@@ -5232,23 +5395,23 @@
       <c r="A16" s="4">
         <v>2</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="2">
+      <c r="E16" s="10">
         <v>1</v>
       </c>
       <c r="F16" s="4">
         <f>VLOOKUP(D16,价值!$B:$G,6,0)*E16</f>
         <v>50</v>
       </c>
-      <c r="G16" s="9" t="str">
+      <c r="G16" s="8" t="str">
         <f>VLOOKUP(D16,价值!$B:$G,3,0)&amp;","&amp;E16</f>
         <v>pack,303,1</v>
       </c>
@@ -5264,23 +5427,23 @@
       <c r="A17" s="4">
         <v>2</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="8" t="s">
+      <c r="D17" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="2">
+      <c r="E17" s="10">
         <v>1</v>
       </c>
       <c r="F17" s="4">
         <f>VLOOKUP(D17,价值!$B:$G,6,0)*E17</f>
         <v>50</v>
       </c>
-      <c r="G17" s="9" t="str">
+      <c r="G17" s="8" t="str">
         <f>VLOOKUP(D17,价值!$B:$G,3,0)&amp;","&amp;E17</f>
         <v>pack,303,1</v>
       </c>
@@ -5294,23 +5457,23 @@
       <c r="A18" s="4">
         <v>2</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E18" s="2">
+      <c r="E18" s="10">
         <v>1</v>
       </c>
       <c r="F18" s="4">
         <f>VLOOKUP(D18,价值!$B:$G,6,0)*E18</f>
         <v>60</v>
       </c>
-      <c r="G18" s="9" t="str">
+      <c r="G18" s="8" t="str">
         <f>VLOOKUP(D18,价值!$B:$G,3,0)&amp;","&amp;E18</f>
         <v>prop,105,1</v>
       </c>
@@ -5324,23 +5487,23 @@
       <c r="A19" s="4">
         <v>2</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="2">
+      <c r="E19" s="10">
         <v>1</v>
       </c>
       <c r="F19" s="4">
         <f>VLOOKUP(D19,价值!$B:$G,6,0)*E19</f>
         <v>60</v>
       </c>
-      <c r="G19" s="9" t="str">
+      <c r="G19" s="8" t="str">
         <f>VLOOKUP(D19,价值!$B:$G,3,0)&amp;","&amp;E19</f>
         <v>prop,105,1</v>
       </c>
@@ -5356,23 +5519,23 @@
       <c r="A20" s="4">
         <v>2</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="8" t="s">
+      <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E20" s="2">
+      <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="4">
         <f>VLOOKUP(D20,价值!$B:$G,6,0)*E20</f>
         <v>50</v>
       </c>
-      <c r="G20" s="9" t="str">
+      <c r="G20" s="8" t="str">
         <f>VLOOKUP(D20,价值!$B:$G,3,0)&amp;","&amp;E20</f>
         <v>pack,303,1</v>
       </c>
@@ -5388,23 +5551,23 @@
       <c r="A21" s="4">
         <v>2</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <v>6</v>
       </c>
-      <c r="D21" s="8" t="s">
+      <c r="D21" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E21" s="2">
+      <c r="E21" s="10">
         <v>1</v>
       </c>
       <c r="F21" s="4">
         <f>VLOOKUP(D21,价值!$B:$G,6,0)*E21</f>
         <v>50</v>
       </c>
-      <c r="G21" s="9" t="str">
+      <c r="G21" s="8" t="str">
         <f>VLOOKUP(D21,价值!$B:$G,3,0)&amp;","&amp;E21</f>
         <v>pack,303,1</v>
       </c>
@@ -5420,23 +5583,23 @@
       <c r="A22" s="4">
         <v>2</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <v>7</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E22" s="2">
+      <c r="E22" s="10">
         <v>2500</v>
       </c>
       <c r="F22" s="4">
         <f>VLOOKUP(D22,价值!$B:$G,6,0)*E22</f>
         <v>50</v>
       </c>
-      <c r="G22" s="9" t="str">
+      <c r="G22" s="8" t="str">
         <f>VLOOKUP(D22,价值!$B:$G,3,0)&amp;","&amp;E22</f>
         <v>coin,2500</v>
       </c>
@@ -5452,23 +5615,23 @@
       <c r="A23" s="4">
         <v>2</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <v>8</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E23" s="2">
+      <c r="E23" s="10">
         <v>2500</v>
       </c>
       <c r="F23" s="4">
         <f>VLOOKUP(D23,价值!$B:$G,6,0)*E23</f>
         <v>50</v>
       </c>
-      <c r="G23" s="9" t="str">
+      <c r="G23" s="8" t="str">
         <f>VLOOKUP(D23,价值!$B:$G,3,0)&amp;","&amp;E23</f>
         <v>coin,2500</v>
       </c>
@@ -5484,23 +5647,23 @@
       <c r="A24" s="4">
         <v>2</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24" s="5">
         <v>9</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="2">
+      <c r="E24" s="10">
         <v>1</v>
       </c>
       <c r="F24" s="4">
         <f>VLOOKUP(D24,价值!$B:$G,6,0)*E24</f>
         <v>40</v>
       </c>
-      <c r="G24" s="9" t="str">
+      <c r="G24" s="8" t="str">
         <f>VLOOKUP(D24,价值!$B:$G,3,0)&amp;","&amp;E24</f>
         <v>pack,702,1</v>
       </c>
@@ -5516,23 +5679,23 @@
       <c r="A25" s="4">
         <v>2</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B25" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25" s="5">
         <v>10</v>
       </c>
-      <c r="D25" s="8" t="s">
+      <c r="D25" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E25" s="2">
+      <c r="E25" s="10">
         <v>1</v>
       </c>
       <c r="F25" s="4">
         <f>VLOOKUP(D25,价值!$B:$G,6,0)*E25</f>
         <v>40</v>
       </c>
-      <c r="G25" s="9" t="str">
+      <c r="G25" s="8" t="str">
         <f>VLOOKUP(D25,价值!$B:$G,3,0)&amp;","&amp;E25</f>
         <v>pack,702,1</v>
       </c>
@@ -5548,23 +5711,23 @@
       <c r="A26" s="4">
         <v>2</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26" s="12">
         <v>1</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="D26" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E26" s="2">
+      <c r="E26" s="14">
         <v>1</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="9">
         <f>VLOOKUP(D26,价值!$B:$G,6,0)*E26</f>
         <v>600</v>
       </c>
-      <c r="G26" s="9" t="str">
+      <c r="G26" s="8" t="str">
         <f>VLOOKUP(D26,价值!$B:$G,3,0)&amp;","&amp;E26</f>
         <v>pack,304,1</v>
       </c>
@@ -5580,23 +5743,23 @@
       <c r="A27" s="4">
         <v>2</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="12">
         <v>2</v>
       </c>
-      <c r="D27" s="3" t="s">
+      <c r="D27" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E27" s="2">
+      <c r="E27" s="14">
         <v>1</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="9">
         <f>VLOOKUP(D27,价值!$B:$G,6,0)*E27</f>
         <v>600</v>
       </c>
-      <c r="G27" s="9" t="str">
+      <c r="G27" s="8" t="str">
         <f>VLOOKUP(D27,价值!$B:$G,3,0)&amp;","&amp;E27</f>
         <v>pack,304,1</v>
       </c>
@@ -5612,23 +5775,23 @@
       <c r="A28" s="4">
         <v>2</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="12">
         <v>3</v>
       </c>
-      <c r="D28" s="3" t="s">
+      <c r="D28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E28" s="2">
+      <c r="E28" s="14">
         <v>5</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="9">
         <f>VLOOKUP(D28,价值!$B:$G,6,0)*E28</f>
         <v>500</v>
       </c>
-      <c r="G28" s="9" t="str">
+      <c r="G28" s="8" t="str">
         <f>VLOOKUP(D28,价值!$B:$G,3,0)&amp;","&amp;E28</f>
         <v>prop,403,5</v>
       </c>
@@ -5644,23 +5807,23 @@
       <c r="A29" s="4">
         <v>2</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="12">
         <v>4</v>
       </c>
-      <c r="D29" s="3" t="s">
+      <c r="D29" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="2">
+      <c r="E29" s="14">
         <v>4000</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="9">
         <f>VLOOKUP(D29,价值!$B:$G,6,0)*E29</f>
         <v>500</v>
       </c>
-      <c r="G29" s="9" t="str">
+      <c r="G29" s="8" t="str">
         <f>VLOOKUP(D29,价值!$B:$G,3,0)&amp;","&amp;E29</f>
         <v>stage_token,4000</v>
       </c>
@@ -5676,23 +5839,23 @@
       <c r="A30" s="4">
         <v>3</v>
       </c>
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <v>1</v>
       </c>
-      <c r="D30" s="8" t="s">
+      <c r="D30" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E30" s="2">
+      <c r="E30" s="10">
         <v>1</v>
       </c>
       <c r="F30" s="4">
         <f>VLOOKUP(D30,价值!$B:$G,6,0)*E30</f>
         <v>50</v>
       </c>
-      <c r="G30" s="9" t="str">
+      <c r="G30" s="8" t="str">
         <f>VLOOKUP(D30,价值!$B:$G,3,0)&amp;","&amp;E30</f>
         <v>pack,303,1</v>
       </c>
@@ -5708,23 +5871,23 @@
       <c r="A31" s="4">
         <v>3</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31" s="5">
         <v>2</v>
       </c>
-      <c r="D31" s="8" t="s">
+      <c r="D31" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E31" s="2">
+      <c r="E31" s="10">
         <v>1</v>
       </c>
       <c r="F31" s="4">
         <f>VLOOKUP(D31,价值!$B:$G,6,0)*E31</f>
         <v>50</v>
       </c>
-      <c r="G31" s="9" t="str">
+      <c r="G31" s="8" t="str">
         <f>VLOOKUP(D31,价值!$B:$G,3,0)&amp;","&amp;E31</f>
         <v>pack,303,1</v>
       </c>
@@ -5740,23 +5903,23 @@
       <c r="A32" s="4">
         <v>3</v>
       </c>
-      <c r="B32" s="6" t="s">
+      <c r="B32" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32" s="5">
         <v>3</v>
       </c>
-      <c r="D32" s="8" t="s">
+      <c r="D32" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="10">
         <v>1</v>
       </c>
       <c r="F32" s="4">
         <f>VLOOKUP(D32,价值!$B:$G,6,0)*E32</f>
         <v>50</v>
       </c>
-      <c r="G32" s="9" t="str">
+      <c r="G32" s="8" t="str">
         <f>VLOOKUP(D32,价值!$B:$G,3,0)&amp;","&amp;E32</f>
         <v>pack,303,1</v>
       </c>
@@ -5772,23 +5935,23 @@
       <c r="A33" s="4">
         <v>3</v>
       </c>
-      <c r="B33" s="6" t="s">
+      <c r="B33" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33" s="5">
         <v>4</v>
       </c>
-      <c r="D33" s="8" t="s">
+      <c r="D33" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="10">
         <v>1</v>
       </c>
       <c r="F33" s="4">
         <f>VLOOKUP(D33,价值!$B:$G,6,0)*E33</f>
         <v>50</v>
       </c>
-      <c r="G33" s="9" t="str">
+      <c r="G33" s="8" t="str">
         <f>VLOOKUP(D33,价值!$B:$G,3,0)&amp;","&amp;E33</f>
         <v>pack,303,1</v>
       </c>
@@ -5797,23 +5960,23 @@
       <c r="A34" s="4">
         <v>3</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34" s="5">
         <v>5</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="2">
+      <c r="E34" s="10">
         <v>1</v>
       </c>
       <c r="F34" s="4">
         <f>VLOOKUP(D34,价值!$B:$G,6,0)*E34</f>
         <v>60</v>
       </c>
-      <c r="G34" s="9" t="str">
+      <c r="G34" s="8" t="str">
         <f>VLOOKUP(D34,价值!$B:$G,3,0)&amp;","&amp;E34</f>
         <v>prop,105,1</v>
       </c>
@@ -5822,23 +5985,23 @@
       <c r="A35" s="4">
         <v>3</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35" s="5">
         <v>6</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="D35" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="2">
+      <c r="E35" s="10">
         <v>1</v>
       </c>
       <c r="F35" s="4">
         <f>VLOOKUP(D35,价值!$B:$G,6,0)*E35</f>
         <v>60</v>
       </c>
-      <c r="G35" s="9" t="str">
+      <c r="G35" s="8" t="str">
         <f>VLOOKUP(D35,价值!$B:$G,3,0)&amp;","&amp;E35</f>
         <v>prop,105,1</v>
       </c>
@@ -5847,23 +6010,23 @@
       <c r="A36" s="4">
         <v>3</v>
       </c>
-      <c r="B36" s="6" t="s">
+      <c r="B36" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36" s="5">
         <v>7</v>
       </c>
-      <c r="D36" s="8" t="s">
+      <c r="D36" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="2">
+      <c r="E36" s="10">
         <v>500</v>
       </c>
       <c r="F36" s="4">
         <f>VLOOKUP(D36,价值!$B:$G,6,0)*E36</f>
         <v>62.5</v>
       </c>
-      <c r="G36" s="9" t="str">
+      <c r="G36" s="8" t="str">
         <f>VLOOKUP(D36,价值!$B:$G,3,0)&amp;","&amp;E36</f>
         <v>stage_token,500</v>
       </c>
@@ -5872,23 +6035,23 @@
       <c r="A37" s="4">
         <v>3</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B37" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37" s="5">
         <v>8</v>
       </c>
-      <c r="D37" s="8" t="s">
+      <c r="D37" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="2">
+      <c r="E37" s="10">
         <v>500</v>
       </c>
       <c r="F37" s="4">
         <f>VLOOKUP(D37,价值!$B:$G,6,0)*E37</f>
         <v>62.5</v>
       </c>
-      <c r="G37" s="9" t="str">
+      <c r="G37" s="8" t="str">
         <f>VLOOKUP(D37,价值!$B:$G,3,0)&amp;","&amp;E37</f>
         <v>stage_token,500</v>
       </c>
@@ -5897,23 +6060,23 @@
       <c r="A38" s="4">
         <v>3</v>
       </c>
-      <c r="B38" s="6" t="s">
+      <c r="B38" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38" s="5">
         <v>9</v>
       </c>
-      <c r="D38" s="8" t="s">
+      <c r="D38" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E38" s="2">
+      <c r="E38" s="10">
         <v>2500</v>
       </c>
       <c r="F38" s="4">
         <f>VLOOKUP(D38,价值!$B:$G,6,0)*E38</f>
         <v>50</v>
       </c>
-      <c r="G38" s="9" t="str">
+      <c r="G38" s="8" t="str">
         <f>VLOOKUP(D38,价值!$B:$G,3,0)&amp;","&amp;E38</f>
         <v>coin,2500</v>
       </c>
@@ -5922,23 +6085,23 @@
       <c r="A39" s="4">
         <v>3</v>
       </c>
-      <c r="B39" s="6" t="s">
+      <c r="B39" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39" s="5">
         <v>10</v>
       </c>
-      <c r="D39" s="8" t="s">
+      <c r="D39" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E39" s="2">
+      <c r="E39" s="10">
         <v>2500</v>
       </c>
       <c r="F39" s="4">
         <f>VLOOKUP(D39,价值!$B:$G,6,0)*E39</f>
         <v>50</v>
       </c>
-      <c r="G39" s="9" t="str">
+      <c r="G39" s="8" t="str">
         <f>VLOOKUP(D39,价值!$B:$G,3,0)&amp;","&amp;E39</f>
         <v>coin,2500</v>
       </c>
@@ -5947,23 +6110,23 @@
       <c r="A40" s="4">
         <v>3</v>
       </c>
-      <c r="B40" s="6" t="s">
+      <c r="B40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40" s="12">
         <v>1</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="D40" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="2">
+      <c r="E40" s="14">
         <v>1</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="9">
         <f>VLOOKUP(D40,价值!$B:$G,6,0)*E40</f>
         <v>600</v>
       </c>
-      <c r="G40" s="9" t="str">
+      <c r="G40" s="8" t="str">
         <f>VLOOKUP(D40,价值!$B:$G,3,0)&amp;","&amp;E40</f>
         <v>pack,304,1</v>
       </c>
@@ -5972,23 +6135,23 @@
       <c r="A41" s="4">
         <v>3</v>
       </c>
-      <c r="B41" s="6" t="s">
+      <c r="B41" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41" s="12">
         <v>2</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D41" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="E41" s="2">
+      <c r="E41" s="14">
         <v>1</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="9">
         <f>VLOOKUP(D41,价值!$B:$G,6,0)*E41</f>
         <v>600</v>
       </c>
-      <c r="G41" s="9" t="str">
+      <c r="G41" s="8" t="str">
         <f>VLOOKUP(D41,价值!$B:$G,3,0)&amp;","&amp;E41</f>
         <v>pack,304,1</v>
       </c>
@@ -5997,48 +6160,47 @@
       <c r="A42" s="4">
         <v>3</v>
       </c>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42" s="12">
         <v>3</v>
       </c>
-      <c r="D42" s="3" t="s">
+      <c r="D42" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="2">
+      <c r="E42" s="14">
         <v>1</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="9">
         <f>VLOOKUP(D42,价值!$B:$G,6,0)*E42</f>
         <v>800</v>
       </c>
-      <c r="G42" s="7" t="str">
-        <f>VLOOKUP(D42,价值!$B:$G,3,0)&amp;","&amp;E42</f>
-        <v>0,1</v>
+      <c r="G42" s="7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
         <v>3</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B43" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C43" s="6">
+      <c r="C43" s="12">
         <v>4</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="2">
+      <c r="E43" s="14">
         <v>2</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="9">
         <f>VLOOKUP(D43,价值!$B:$G,6,0)*E43</f>
         <v>400</v>
       </c>
-      <c r="G43" s="9" t="str">
+      <c r="G43" s="8" t="str">
         <f>VLOOKUP(D43,价值!$B:$G,3,0)&amp;","&amp;E43</f>
         <v>pack,703,2</v>
       </c>
@@ -6047,15 +6209,15 @@
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="3"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="8"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="F45" s="11">
+      <c r="F45" s="9">
         <f>SUM(F2:F43)</f>
         <v>7957.5</v>
       </c>
-      <c r="G45" s="9"/>
+      <c r="G45" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/OPM经济数值/活动_4_时光之巅.xlsx
+++ b/OPM经济数值/活动_4_时光之巅.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38020" yWindow="1520" windowWidth="38400" windowHeight="20080"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="20080"/>
   </bookViews>
   <sheets>
     <sheet name="奖励" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="38">
   <si>
     <t>难度</t>
     <rPh sb="0" eb="1">
@@ -136,19 +136,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机图C碎片</t>
-    <rPh sb="0" eb="1">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>sui'pian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>钻石</t>
     <rPh sb="0" eb="1">
       <t>zuan'shi</t>
@@ -180,19 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机图B碎片</t>
-    <rPh sb="0" eb="1">
-      <t>sui'ji</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>tu</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>sui'pian</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SR</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,12 +188,104 @@
     <t>pack,92</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>prop,105,1</t>
+  </si>
+  <si>
+    <t>stage_token,500</t>
+  </si>
+  <si>
+    <t>coin,2500</t>
+  </si>
+  <si>
+    <t>prop,702,2</t>
+  </si>
+  <si>
+    <t>cash,400</t>
+  </si>
+  <si>
+    <t>随机5星饰品</t>
+    <rPh sb="0" eb="1">
+      <t>sui'ji</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xing</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'pin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等攻击天赋书</t>
+    <rPh sb="0" eb="1">
+      <t>gao'deng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>gong'ji</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian'fu'shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高等生存天赋书</t>
+    <rPh sb="0" eb="1">
+      <t>gao'deng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>sheng'cun</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>tian'fu</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,103</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,103</t>
+  </si>
+  <si>
+    <t>item,104</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stage_token,400</t>
+  </si>
+  <si>
+    <t>prop,315,3</t>
+  </si>
+  <si>
+    <t>prop,318,3</t>
+  </si>
+  <si>
+    <t>prop,403,20</t>
+  </si>
+  <si>
+    <t>item,145</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>item,105</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -281,6 +347,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -302,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -338,6 +411,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4907,8 +4981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -4919,7 +4993,8 @@
     <col min="5" max="5" width="8.1640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="8.1640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16" width="8.1640625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="8.1640625" style="2" customWidth="1"/>
     <col min="17" max="17" width="13.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="21" width="8.83203125" style="2"/>
     <col min="22" max="22" width="8.83203125" style="4"/>
@@ -4952,7 +5027,7 @@
       <c r="T1" s="4"/>
       <c r="U1" s="4"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -4963,7 +5038,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E2" s="10">
         <v>1</v>
@@ -4976,7 +5051,9 @@
         <f>VLOOKUP(D2,价值!$B:$G,3,0)&amp;","&amp;E2</f>
         <v>pack,303,1</v>
       </c>
-      <c r="H2" s="3"/>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
       <c r="P2" s="4"/>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
@@ -4984,7 +5061,7 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -4995,7 +5072,7 @@
         <v>2</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E3" s="10">
         <v>1</v>
@@ -5008,7 +5085,9 @@
         <f>VLOOKUP(D3,价值!$B:$G,3,0)&amp;","&amp;E3</f>
         <v>pack,303,1</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
       <c r="P3" s="4"/>
       <c r="Q3" s="4"/>
       <c r="R3" s="4"/>
@@ -5016,7 +5095,7 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>1</v>
       </c>
@@ -5027,7 +5106,7 @@
         <v>3</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E4" s="10">
         <v>1</v>
@@ -5040,7 +5119,9 @@
         <f>VLOOKUP(D4,价值!$B:$G,3,0)&amp;","&amp;E4</f>
         <v>pack,303,1</v>
       </c>
-      <c r="H4" s="3"/>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
@@ -5048,7 +5129,7 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -5059,7 +5140,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E5" s="10">
         <v>1</v>
@@ -5072,7 +5153,9 @@
         <f>VLOOKUP(D5,价值!$B:$G,3,0)&amp;","&amp;E5</f>
         <v>pack,303,1</v>
       </c>
-      <c r="H5" s="3"/>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
@@ -5080,7 +5163,7 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>1</v>
       </c>
@@ -5091,7 +5174,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E6" s="10">
         <v>1</v>
@@ -5104,7 +5187,9 @@
         <f>VLOOKUP(D6,价值!$B:$G,3,0)&amp;","&amp;E6</f>
         <v>pack,303,1</v>
       </c>
-      <c r="H6" s="3"/>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
@@ -5122,21 +5207,23 @@
       <c r="C7" s="5">
         <v>6</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>13</v>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
       </c>
       <c r="E7" s="10">
-        <v>1</v>
+        <v>2500</v>
       </c>
       <c r="F7" s="4">
         <f>VLOOKUP(D7,价值!$B:$G,6,0)*E7</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G7" s="8" t="str">
         <f>VLOOKUP(D7,价值!$B:$G,3,0)&amp;","&amp;E7</f>
-        <v>prop,105,1</v>
-      </c>
-      <c r="H7" s="8"/>
+        <v>coin,2500</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
@@ -5158,15 +5245,18 @@
         <v>14</v>
       </c>
       <c r="E8" s="10">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="F8" s="4">
         <f>VLOOKUP(D8,价值!$B:$G,6,0)*E8</f>
-        <v>62.5</v>
+        <v>50</v>
       </c>
       <c r="G8" s="8" t="str">
         <f>VLOOKUP(D8,价值!$B:$G,3,0)&amp;","&amp;E8</f>
-        <v>stage_token,500</v>
+        <v>coin,2500</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
@@ -5186,19 +5276,24 @@
         <v>8</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" s="10">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="F9" s="4">
         <f>VLOOKUP(D9,价值!$B:$G,6,0)*E9</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G9" s="8" t="str">
         <f>VLOOKUP(D9,价值!$B:$G,3,0)&amp;","&amp;E9</f>
-        <v>coin,2500</v>
-      </c>
+        <v>stage_token,500</v>
+      </c>
+      <c r="H9" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="10"/>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -5217,19 +5312,24 @@
         <v>9</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E10" s="10">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="F10" s="4">
         <f>VLOOKUP(D10,价值!$B:$G,6,0)*E10</f>
-        <v>50</v>
+        <v>62.5</v>
       </c>
       <c r="G10" s="8" t="str">
         <f>VLOOKUP(D10,价值!$B:$G,3,0)&amp;","&amp;E10</f>
-        <v>coin,2500</v>
-      </c>
+        <v>stage_token,500</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="10"/>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -5247,19 +5347,22 @@
       <c r="C11" s="5">
         <v>10</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>17</v>
+      <c r="D11" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="F11" s="4">
         <f>VLOOKUP(D11,价值!$B:$G,6,0)*E11</f>
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="G11" s="8" t="str">
         <f>VLOOKUP(D11,价值!$B:$G,3,0)&amp;","&amp;E11</f>
-        <v>pack,702,1</v>
+        <v>prop,105,1</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
@@ -5268,7 +5371,7 @@
       <c r="T11" s="4"/>
       <c r="U11" s="4"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>1</v>
       </c>
@@ -5291,6 +5394,9 @@
       <c r="G12" s="8" t="str">
         <f>VLOOKUP(D12,价值!$B:$G,3,0)&amp;","&amp;E12</f>
         <v>pack,304,1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>30</v>
       </c>
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
@@ -5323,6 +5429,9 @@
         <f>VLOOKUP(D13,价值!$B:$G,3,0)&amp;","&amp;E13</f>
         <v>prop,702,2</v>
       </c>
+      <c r="H13" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
@@ -5330,7 +5439,7 @@
       <c r="T13" s="4"/>
       <c r="U13" s="4"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>1</v>
       </c>
@@ -5341,7 +5450,7 @@
         <v>3</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="14">
         <v>1</v>
@@ -5351,7 +5460,10 @@
         <v>300</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>35</v>
       </c>
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
@@ -5360,7 +5472,7 @@
       <c r="T14" s="4"/>
       <c r="U14" s="4"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>1</v>
       </c>
@@ -5371,7 +5483,7 @@
         <v>4</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E15" s="14">
         <v>400</v>
@@ -5383,6 +5495,9 @@
       <c r="G15" s="8" t="str">
         <f>VLOOKUP(D15,价值!$B:$G,3,0)&amp;","&amp;E15</f>
         <v>cash,400</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
       </c>
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
@@ -5391,7 +5506,7 @@
       <c r="T15" s="4"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:22" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>2</v>
       </c>
@@ -5402,7 +5517,7 @@
         <v>1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E16" s="10">
         <v>1</v>
@@ -5414,6 +5529,9 @@
       <c r="G16" s="8" t="str">
         <f>VLOOKUP(D16,价值!$B:$G,3,0)&amp;","&amp;E16</f>
         <v>pack,303,1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
       </c>
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
@@ -5423,7 +5541,7 @@
       <c r="U16" s="4"/>
       <c r="V16" s="5"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>2</v>
       </c>
@@ -5434,7 +5552,7 @@
         <v>2</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E17" s="10">
         <v>1</v>
@@ -5446,6 +5564,9 @@
       <c r="G17" s="8" t="str">
         <f>VLOOKUP(D17,价值!$B:$G,3,0)&amp;","&amp;E17</f>
         <v>pack,303,1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
@@ -5453,7 +5574,7 @@
       <c r="T17" s="4"/>
       <c r="U17" s="4"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>2</v>
       </c>
@@ -5463,27 +5584,35 @@
       <c r="C18" s="5">
         <v>3</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>13</v>
+      <c r="D18" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E18" s="10">
         <v>1</v>
       </c>
       <c r="F18" s="4">
         <f>VLOOKUP(D18,价值!$B:$G,6,0)*E18</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G18" s="8" t="str">
         <f>VLOOKUP(D18,价值!$B:$G,3,0)&amp;","&amp;E18</f>
-        <v>prop,105,1</v>
-      </c>
+        <v>pack,303,1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K18" s="7"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="8"/>
+      <c r="O18"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
       <c r="S18" s="4"/>
       <c r="T18" s="4"/>
       <c r="U18" s="4"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>2</v>
       </c>
@@ -5493,20 +5622,28 @@
       <c r="C19" s="5">
         <v>4</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>13</v>
+      <c r="D19" s="7" t="s">
+        <v>17</v>
       </c>
       <c r="E19" s="10">
         <v>1</v>
       </c>
       <c r="F19" s="4">
         <f>VLOOKUP(D19,价值!$B:$G,6,0)*E19</f>
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="G19" s="8" t="str">
         <f>VLOOKUP(D19,价值!$B:$G,3,0)&amp;","&amp;E19</f>
-        <v>prop,105,1</v>
-      </c>
+        <v>pack,303,1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="7"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="8"/>
+      <c r="O19"/>
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
@@ -5515,7 +5652,7 @@
       <c r="U19" s="4"/>
       <c r="W19" s="4"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>2</v>
       </c>
@@ -5525,19 +5662,22 @@
       <c r="C20" s="5">
         <v>5</v>
       </c>
-      <c r="D20" s="7" t="s">
-        <v>19</v>
+      <c r="D20" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E20" s="10">
         <v>1</v>
       </c>
       <c r="F20" s="4">
         <f>VLOOKUP(D20,价值!$B:$G,6,0)*E20</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G20" s="8" t="str">
         <f>VLOOKUP(D20,价值!$B:$G,3,0)&amp;","&amp;E20</f>
-        <v>pack,303,1</v>
+        <v>prop,105,1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
       </c>
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
@@ -5547,7 +5687,7 @@
       <c r="U20" s="4"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>2</v>
       </c>
@@ -5557,19 +5697,22 @@
       <c r="C21" s="5">
         <v>6</v>
       </c>
-      <c r="D21" s="7" t="s">
-        <v>19</v>
+      <c r="D21" s="11" t="s">
+        <v>12</v>
       </c>
       <c r="E21" s="10">
         <v>1</v>
       </c>
       <c r="F21" s="4">
         <f>VLOOKUP(D21,价值!$B:$G,6,0)*E21</f>
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G21" s="8" t="str">
         <f>VLOOKUP(D21,价值!$B:$G,3,0)&amp;","&amp;E21</f>
-        <v>pack,303,1</v>
+        <v>prop,105,1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>20</v>
       </c>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
@@ -5579,7 +5722,7 @@
       <c r="U21" s="4"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>2</v>
       </c>
@@ -5590,7 +5733,7 @@
         <v>7</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="10">
         <v>2500</v>
@@ -5602,6 +5745,9 @@
       <c r="G22" s="8" t="str">
         <f>VLOOKUP(D22,价值!$B:$G,3,0)&amp;","&amp;E22</f>
         <v>coin,2500</v>
+      </c>
+      <c r="H22" t="s">
+        <v>22</v>
       </c>
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
@@ -5611,7 +5757,7 @@
       <c r="U22" s="4"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>2</v>
       </c>
@@ -5622,7 +5768,7 @@
         <v>8</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E23" s="10">
         <v>2500</v>
@@ -5634,6 +5780,9 @@
       <c r="G23" s="8" t="str">
         <f>VLOOKUP(D23,价值!$B:$G,3,0)&amp;","&amp;E23</f>
         <v>coin,2500</v>
+      </c>
+      <c r="H23" t="s">
+        <v>22</v>
       </c>
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
@@ -5643,7 +5792,7 @@
       <c r="U23" s="4"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>2</v>
       </c>
@@ -5654,18 +5803,21 @@
         <v>9</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E24" s="10">
-        <v>1</v>
+        <v>500</v>
       </c>
       <c r="F24" s="4">
         <f>VLOOKUP(D24,价值!$B:$G,6,0)*E24</f>
-        <v>40</v>
+        <v>62.5</v>
       </c>
       <c r="G24" s="8" t="str">
         <f>VLOOKUP(D24,价值!$B:$G,3,0)&amp;","&amp;E24</f>
-        <v>pack,702,1</v>
+        <v>stage_token,500</v>
+      </c>
+      <c r="H24" t="s">
+        <v>21</v>
       </c>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
@@ -5675,7 +5827,7 @@
       <c r="U24" s="4"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>2</v>
       </c>
@@ -5686,18 +5838,21 @@
         <v>10</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E25" s="10">
-        <v>1</v>
+        <v>400</v>
       </c>
       <c r="F25" s="4">
         <f>VLOOKUP(D25,价值!$B:$G,6,0)*E25</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G25" s="8" t="str">
         <f>VLOOKUP(D25,价值!$B:$G,3,0)&amp;","&amp;E25</f>
-        <v>pack,702,1</v>
+        <v>stage_token,400</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
       </c>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
@@ -5707,7 +5862,7 @@
       <c r="U25" s="4"/>
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>2</v>
       </c>
@@ -5730,6 +5885,9 @@
       <c r="G26" s="8" t="str">
         <f>VLOOKUP(D26,价值!$B:$G,3,0)&amp;","&amp;E26</f>
         <v>pack,304,1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>30</v>
       </c>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
@@ -5739,7 +5897,7 @@
       <c r="U26" s="4"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>2</v>
       </c>
@@ -5762,6 +5920,9 @@
       <c r="G27" s="8" t="str">
         <f>VLOOKUP(D27,价值!$B:$G,3,0)&amp;","&amp;E27</f>
         <v>pack,304,1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>30</v>
       </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
@@ -5771,7 +5932,7 @@
       <c r="U27" s="4"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>2</v>
       </c>
@@ -5782,18 +5943,21 @@
         <v>3</v>
       </c>
       <c r="D28" s="14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F28" s="9">
         <f>VLOOKUP(D28,价值!$B:$G,6,0)*E28</f>
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G28" s="8" t="str">
         <f>VLOOKUP(D28,价值!$B:$G,3,0)&amp;","&amp;E28</f>
-        <v>prop,403,5</v>
+        <v>pack,304,1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>30</v>
       </c>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
@@ -5803,7 +5967,7 @@
       <c r="U28" s="4"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>2</v>
       </c>
@@ -5814,18 +5978,20 @@
         <v>4</v>
       </c>
       <c r="D29" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29" s="14">
-        <v>4000</v>
+        <v>1</v>
       </c>
       <c r="F29" s="9">
         <f>VLOOKUP(D29,价值!$B:$G,6,0)*E29</f>
-        <v>500</v>
-      </c>
-      <c r="G29" s="8" t="str">
-        <f>VLOOKUP(D29,价值!$B:$G,3,0)&amp;","&amp;E29</f>
-        <v>stage_token,4000</v>
+        <v>800</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="H29" s="15" t="s">
+        <v>36</v>
       </c>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
@@ -5835,7 +6001,7 @@
       <c r="U29" s="4"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>3</v>
       </c>
@@ -5846,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E30" s="10">
         <v>1</v>
@@ -5858,6 +6024,9 @@
       <c r="G30" s="8" t="str">
         <f>VLOOKUP(D30,价值!$B:$G,3,0)&amp;","&amp;E30</f>
         <v>pack,303,1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
       </c>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
@@ -5867,7 +6036,7 @@
       <c r="U30" s="4"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>3</v>
       </c>
@@ -5878,7 +6047,7 @@
         <v>2</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E31" s="10">
         <v>1</v>
@@ -5890,6 +6059,9 @@
       <c r="G31" s="8" t="str">
         <f>VLOOKUP(D31,价值!$B:$G,3,0)&amp;","&amp;E31</f>
         <v>pack,303,1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>28</v>
       </c>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
@@ -5899,7 +6071,7 @@
       <c r="U31" s="4"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:23" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>3</v>
       </c>
@@ -5910,7 +6082,7 @@
         <v>3</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E32" s="10">
         <v>1</v>
@@ -5922,6 +6094,9 @@
       <c r="G32" s="8" t="str">
         <f>VLOOKUP(D32,价值!$B:$G,3,0)&amp;","&amp;E32</f>
         <v>pack,303,1</v>
+      </c>
+      <c r="H32" t="s">
+        <v>29</v>
       </c>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
@@ -5931,7 +6106,7 @@
       <c r="U32" s="4"/>
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>3</v>
       </c>
@@ -5942,7 +6117,7 @@
         <v>4</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E33" s="10">
         <v>1</v>
@@ -5955,8 +6130,11 @@
         <f>VLOOKUP(D33,价值!$B:$G,3,0)&amp;","&amp;E33</f>
         <v>pack,303,1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>3</v>
       </c>
@@ -5967,7 +6145,7 @@
         <v>5</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" s="10">
         <v>1</v>
@@ -5980,8 +6158,11 @@
         <f>VLOOKUP(D34,价值!$B:$G,3,0)&amp;","&amp;E34</f>
         <v>prop,105,1</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H34" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>3</v>
       </c>
@@ -5992,7 +6173,7 @@
         <v>6</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" s="10">
         <v>1</v>
@@ -6005,8 +6186,11 @@
         <f>VLOOKUP(D35,价值!$B:$G,3,0)&amp;","&amp;E35</f>
         <v>prop,105,1</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>3</v>
       </c>
@@ -6017,7 +6201,7 @@
         <v>7</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E36" s="10">
         <v>500</v>
@@ -6030,8 +6214,11 @@
         <f>VLOOKUP(D36,价值!$B:$G,3,0)&amp;","&amp;E36</f>
         <v>stage_token,500</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>3</v>
       </c>
@@ -6042,7 +6229,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" s="10">
         <v>500</v>
@@ -6055,8 +6242,11 @@
         <f>VLOOKUP(D37,价值!$B:$G,3,0)&amp;","&amp;E37</f>
         <v>stage_token,500</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>3</v>
       </c>
@@ -6067,7 +6257,7 @@
         <v>9</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E38" s="10">
         <v>2500</v>
@@ -6080,8 +6270,11 @@
         <f>VLOOKUP(D38,价值!$B:$G,3,0)&amp;","&amp;E38</f>
         <v>coin,2500</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>3</v>
       </c>
@@ -6092,7 +6285,7 @@
         <v>10</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" s="10">
         <v>2500</v>
@@ -6105,8 +6298,11 @@
         <f>VLOOKUP(D39,价值!$B:$G,3,0)&amp;","&amp;E39</f>
         <v>coin,2500</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>3</v>
       </c>
@@ -6117,21 +6313,24 @@
         <v>1</v>
       </c>
       <c r="D40" s="14" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E40" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" s="9">
         <f>VLOOKUP(D40,价值!$B:$G,6,0)*E40</f>
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="G40" s="8" t="str">
         <f>VLOOKUP(D40,价值!$B:$G,3,0)&amp;","&amp;E40</f>
-        <v>pack,304,1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+        <v>prop,315,3</v>
+      </c>
+      <c r="H40" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>3</v>
       </c>
@@ -6142,21 +6341,24 @@
         <v>2</v>
       </c>
       <c r="D41" s="14" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="E41" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F41" s="9">
         <f>VLOOKUP(D41,价值!$B:$G,6,0)*E41</f>
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="G41" s="8" t="str">
         <f>VLOOKUP(D41,价值!$B:$G,3,0)&amp;","&amp;E41</f>
-        <v>pack,304,1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
+        <v>prop,318,3</v>
+      </c>
+      <c r="H41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>3</v>
       </c>
@@ -6167,20 +6369,24 @@
         <v>3</v>
       </c>
       <c r="D42" s="14" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E42" s="14">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F42" s="9">
         <f>VLOOKUP(D42,价值!$B:$G,6,0)*E42</f>
-        <v>800</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+        <v>2000</v>
+      </c>
+      <c r="G42" s="8" t="str">
+        <f>VLOOKUP(D42,价值!$B:$G,3,0)&amp;","&amp;E42</f>
+        <v>prop,403,20</v>
+      </c>
+      <c r="H42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>3</v>
       </c>
@@ -6191,31 +6397,34 @@
         <v>4</v>
       </c>
       <c r="D43" s="14" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E43" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F43" s="9">
         <f>VLOOKUP(D43,价值!$B:$G,6,0)*E43</f>
-        <v>400</v>
+        <v>4800</v>
       </c>
       <c r="G43" s="8" t="str">
         <f>VLOOKUP(D43,价值!$B:$G,3,0)&amp;","&amp;E43</f>
-        <v>pack,703,2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
+        <v>pack,305,1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="3"/>
       <c r="F44" s="9"/>
       <c r="G44" s="8"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
       <c r="F45" s="9">
         <f>SUM(F2:F43)</f>
-        <v>7957.5</v>
+        <v>14972.5</v>
       </c>
       <c r="G45" s="8"/>
     </row>
@@ -6230,7 +6439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G368"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A57" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
